--- a/sbermegamarket.xlsx
+++ b/sbermegamarket.xlsx
@@ -1,41 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,83 +100,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -433,71 +397,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>user_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>review</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>user_name</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>review</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/sbermegamarket.xlsx
+++ b/sbermegamarket.xlsx
@@ -1,72 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,99 +420,577 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>user_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>review</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Elmira Sab</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Спасибо разработчикам за данное приложение! Очень удобно и все понятно. Хорошо, что можно искать необходимый товар по категориям! 👍</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18-4-2019</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MikeWaz1993</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Привезли заказ в пункт выдачи раньше, чем обещали.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8-11-2021</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Натусик34</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Сегодня первый раз заказала продукты через СберМегаМаркет.Мне все очень понравилось,продукты привезли согласно заказа,быстро и без всяких проблем.Надеюсь в дальнейшем будет все так же отлично.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6-11-2021</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ирен1970</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Еле разобралась, но классный буду пользоваться спасибо !!!</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10-11-2021</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Мария Glück</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Все нравится, цены отличные, закажу в будущем что-то ещё !</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7-11-2021</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Зеркалка</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вы просто уделали нос ВТБ с их баллами!!! Отличная площадка для покупок!!! Продолжайте работать и вы станете лучшими!)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20-11-2021</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Dinotop678</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Приложение бомба. Интуитивно просто . Сразу можно сравнить цены и выбрать лучшую . Но самое классное , что со всеми плюшками сберовскими, это стало ещё и очень выгодно</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25-11-2021</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Вера Гудкова</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>В приложении при выборе товара в корзину его можно положить, затем когда выбираешь пункт доставки оказывается, что товар доступен только в других регионах, но сообщения об этом изначально нет</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20-11-2021</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Lesya-lesya555</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Оплатили бонусами телевизор, приехали в магазин, а там понравился другой. Оформили возврат, все супер быстро вернули. Огромное спасибо за такой сервис! Приложение огонь ))</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19-11-2021</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gelyia</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>✅Заказ не доставлен 
+✅Никто не знает, где товар
+✅Операторы говорят мы выясним и сообщим, но далее Вам никто не перезваниваем не пишет и не сообщает где товар и когда привезут, только предлагают перенести доставку, перенесли и бинго!!!😂В перенесенную дату также на Вас кладут огромный болт и соотвественно ничего не доставляют, не курируют где ваш товар что с ним и привезут ли вообще
+✅операторы сберлогистики отдельная тема, проинформировать не могут да и впринципе 2-х слов связать тоже😂
+✅на все заданные мною вопросы оформляют только обращение, которое потом закрывают, как отработанное, и WOW🥳ничего не меняется
+✅Заказ естественно отменён, деньги вернули по максимальным срокам возврата 
+❌❌❌Вообщем это была первая и последняя неудавшаяся покупка на этом базаре.
+⛔️Мой рекомендейшен✋НЕ ТРАТЬТЕ 
+своё время и нервы, купите в другом месте и будет Вам счастье и спокойствие🎈🎈🎈</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1-6-2021</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>guzaliyass</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Удобно для онлайн покупок: начисляются бонусные рубли, есть возможность списать бонусы Спасибо от Сбербанк.
+Спасибо!</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23-11-2021</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>svettishe</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Спасибо Что вы есть</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10-11-2021</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Казарян Виктория Валентиновна</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Есть всё и даже больше! Спасибо за доставку в постамат,это гораздо удобнее курьеров, с которыми ещё надо договариваться о времени и пр. !
+Удобная и приятная бонусная система 👍
+Все нравится 👍</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25-11-2021</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>yu_ch</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Все чего касается сбер превращается в гoвнo :(</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27-4-2021</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bartfcsm</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Я редко пишу отзывы, но моя чаща терпения переполнена! 
+Goods - был отличным маркетплейсом, почти все доставки во время, очень редко товары задерживалось, ещё реже отменялись! Более 100 заказов с двух аккаунтов за все время, почти никаких нареканий.
+Пришёл СБЕР и все испортил, постоянные отмены заказов или частичная отмена позиций из заказа, постоянные просрочки если дело доходит до доставки! 
+Последний случай меня добил окончательно, думаю это последний заказ в СберМегаМаркете!
+4 июня был оформлен заказ #913523032, доставка должна была произойти 9 июня, в итоге я обратился в поддержку, они ответили с задержкой в 8 часов, что доставка будет до 12 июня и в заказе есть отмена некоторых позиций, ну ладно подумал я, подожду ещё 3 дня, но не тут то было, 12 июня никто ничего не прислал, не написал, я сам повторно обратился в саппорт и что в итоге? Они отвечают, что «никакой новой информации нет и заказ находится у Логистов под контролем», а дальше-больше, до 14 июня со мною никто не связывался, а к вечеру я обратил внимание, что в приложении мой заказ полностью отменён, на мои вопросы, саппорт ответил, что заказ был утерян, но конечно со мною никто не связался! Обидно, не правда? В наше время из Китая товары за 10-14 дней приходят.
+Далее веселее! Мне подарили целых 200 баллов за всю эту ситуацию, плюс за отмену заказа вернулись баллы, я не хотел, чтобы они сгорали и произвёл ещё один заказ #941100573 - доставка на 19 июня, а дальше все очень похоже на прошлый заказ, опять никто не писал/звонил, на мой сегодняшний вопрос саппорт отвечает стандартно, что дата доставки смещается до 23 июня, а далее наверное будет отказ заказа!
+Итого: 
+1. Сбер убил goods!
+2. Саппорт пишет полную чушь и реально не знает, что происходит с доставкой
+3. СБЕР ЛОГИСТАКА - это самый ужасный доставщик в Москве! 
+4. Шутка! Мой попугай и рыбки видимо скоро умрут от голода, т.к. с 4 июня не могут получить корм со СберМегаМаркете!</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20-6-2021</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>anasta83</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>С Праздником коллеги! Так держать, 5 баллов!</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19-11-2021</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>One_Redaction</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>В целом приложение отлично себя показало, быстро, понятно, удобно. В сравнение могу привести озон, куда надобавляли всяких вкладок ненужных и реклам. Хотелось бы видеть промики, не только на первый заказ, но и на последующие, это отличительная черта, от всех остальных торговых площадок ( где надо покупать карты и подписки, чтобы выжать хотя бы один промик, даже те самые быллы, которые фиг получишь). Конечно хотелось бы видеть больше магазинов, но это дело времени. В общем и целом рекомендую данное приложение! Лагов, багов, вылетов не заметил, все четко!
+Разрабам спасибо!</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23-11-2021</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Elena Ermilova</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Отличное, просто и понятное приложение))))</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21-11-2021</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Elmurza</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Вы открываете поиск, пишите ключевое слово, фильтрируете запрос, находите интересный вам товар, кликаете, и хотите вернуться назад чтобы открыть другой товар, но не тут то было вас кидает на главную страницу, то-есть все заново надо начинать, опять поиск и опять настройка фильтра,  «люди которые пользуются продуктами сбера должны страдать и мучаться» это лозунг засел в головах всех сотрудников кажется</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2-7-2021</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Artezzz</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Приложение лучшее среди маркетплейсов по навигации и использованию.
+При этом сервис оставляет желать лучшего.
+Было 2 негативных ситуации:
+1) С курьером из логистики. Заказ не был доставлен в обозначенный день. Претензия была создана и отправдена, при этом с пометкой, что я хотел бы получить личную обратную связь. В итоге пришла только автоматическая отписка. Именно отписка с общими фразами: «да-да, мы предприняли все возможное», лично так никто и не связался. 
+2) заказывал шины на 50 000 рублей, заплатил онлайн, в итоге только через 5 дней, в день доставки, узнаю, что заказ отменен. Деньги будут возвращены еще через 7 дней. Получается, снег уже идет, деньги на 2 недели подвисли, а связь есть только с оператором колл центра. Претензию отправили, с просьбой лично со мной связаться, сомневаюсь, что просьба будет исполнена.
+Итог текузего моего общения: претензии не обрабатываются должным образом, сервис хренового качества. Жду обратной связи по второму обращению (номер заказа 912515286) и РЕАЛЬНЫХ действий.
+Дополняю отзыв:
+1) На обращение по номеру заказа 912515286 от 08.10.2019 так и нет никакой обратной связи по состоянию на 18.10.2019. Единственный позитивный момент - деньги вернулись достаточно оперативно, в течение 3 дней.
+2) Оформил еще один более простой заказ 13.10.2019 с доставкой 18.10.2019. И снова та же проблема: 5 дней заказ висел со статусом «подтвержден продавцом», и только в день доставки я узнаю, что доставка будет перенесена. Это просто самый худший клиентский сервис из всех, что я встречал...</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18-10-2019</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>